--- a/data_impute_project/data/mammals_without_humans.xlsx
+++ b/data_impute_project/data/mammals_without_humans.xlsx
@@ -436,57 +436,57 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>specimen</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>diet</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>δ13C coll</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>δ15N coll</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>δ13C carb</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>δ18O carb</t>
+          <t>I</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>δ18O phos</t>
+          <t>J</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>δ34S coll</t>
+          <t>K</t>
         </is>
       </c>
     </row>

--- a/data_impute_project/data/mammals_without_humans.xlsx
+++ b/data_impute_project/data/mammals_without_humans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>F</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -482,6 +487,11 @@
         <v>17.25</v>
       </c>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Hb 47</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -500,6 +510,11 @@
         <v>17.78</v>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Hb 48</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -518,6 +533,11 @@
         <v>17.51</v>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Hb 21</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -536,6 +556,11 @@
         <v>16.63</v>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hb 22</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -554,6 +579,11 @@
         <v>16.12</v>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hb 17</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -572,6 +602,11 @@
         <v>17.28</v>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>S 6</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -590,6 +625,11 @@
         <v>16.54</v>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Hb 7</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -608,6 +648,11 @@
         <v>17.64</v>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Hb 46</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -626,6 +671,11 @@
         <v>15.84</v>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Hb 1</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -646,6 +696,11 @@
       <c r="F11" t="n">
         <v>12.33</v>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Hb 2</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -666,6 +721,11 @@
       <c r="F12" t="n">
         <v>13.95</v>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Hb 3</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -684,6 +744,11 @@
         <v>16.47</v>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Hb 5</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -704,6 +769,11 @@
       <c r="F14" t="n">
         <v>10.77</v>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>S 24</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -722,6 +792,11 @@
         <v>16.67</v>
       </c>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>S 25</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -740,6 +815,11 @@
         <v>14.68</v>
       </c>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>S 26</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -758,6 +838,11 @@
         <v>15.63</v>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>S 27</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -778,6 +863,11 @@
       <c r="F18" t="n">
         <v>9.970000000000001</v>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>S 28</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -796,6 +886,11 @@
         <v>15.6</v>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hb 19</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -816,6 +911,11 @@
       <c r="F20" t="n">
         <v>15.05</v>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Hb 20</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -832,6 +932,11 @@
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>32 FO1Hepi</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -848,6 +953,11 @@
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>33 FO2H</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -866,6 +976,11 @@
         <v>16.87</v>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hb 103</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -884,6 +999,11 @@
         <v>16.97</v>
       </c>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Hb 104</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -902,6 +1022,11 @@
         <v>16.94</v>
       </c>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Hb 105</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -920,6 +1045,11 @@
         <v>16.18</v>
       </c>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Hb 106</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -940,6 +1070,11 @@
       <c r="F27" t="n">
         <v>14.65</v>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Hb 107</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -958,6 +1093,11 @@
         <v>16.37</v>
       </c>
       <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Hb 63</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -976,6 +1116,11 @@
         <v>16.01</v>
       </c>
       <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Hb 65</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -996,6 +1141,11 @@
       <c r="F30" t="n">
         <v>14.77</v>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Hb 66</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1014,6 +1164,11 @@
         <v>15.34</v>
       </c>
       <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Hb 67</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1032,6 +1187,11 @@
         <v>16.42</v>
       </c>
       <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Hb 68</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1052,6 +1212,11 @@
       <c r="F33" t="n">
         <v>12.94</v>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Hb 69</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1070,6 +1235,11 @@
         <v>16.57</v>
       </c>
       <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Hb 70</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1088,6 +1258,11 @@
         <v>15.44</v>
       </c>
       <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Hb 71</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1106,6 +1281,11 @@
         <v>15.18</v>
       </c>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Hb 72</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1124,6 +1304,11 @@
         <v>17.52</v>
       </c>
       <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hb 93</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1142,6 +1327,11 @@
         <v>16.39</v>
       </c>
       <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Hb 94</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1162,6 +1352,11 @@
       <c r="F39" t="n">
         <v>12.31</v>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Hb 95</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1180,6 +1375,11 @@
         <v>15.99</v>
       </c>
       <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Hb 96</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1198,6 +1398,11 @@
         <v>16.03</v>
       </c>
       <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Hb 97</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1216,6 +1421,11 @@
         <v>15.23</v>
       </c>
       <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Hb 98</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1236,6 +1446,11 @@
       <c r="F43" t="n">
         <v>16.23</v>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Hb 99</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1254,6 +1469,11 @@
         <v>16.16</v>
       </c>
       <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Hb 100</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1272,6 +1492,11 @@
         <v>16.34</v>
       </c>
       <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Hb 101</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1290,6 +1515,11 @@
         <v>16.31</v>
       </c>
       <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Hb 102</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1308,6 +1538,11 @@
         <v>16.64</v>
       </c>
       <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>S 29</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1326,6 +1561,11 @@
         <v>16.52</v>
       </c>
       <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>S 30</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1346,6 +1586,11 @@
       <c r="F49" t="n">
         <v>11.77</v>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>S 17</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1362,6 +1607,11 @@
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>20 KR1Ph</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1378,6 +1628,11 @@
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>21 KR2T</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1394,6 +1649,11 @@
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>22 KR3S</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1410,6 +1670,11 @@
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>23 KR4V</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1426,6 +1691,11 @@
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>24 KR5Mt</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1442,6 +1712,11 @@
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>71 KR1BuTy</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1458,6 +1733,11 @@
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>72 KR2Sc</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1474,6 +1754,11 @@
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>73 KR3Mt</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1490,6 +1775,11 @@
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>74 KR4Fi</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1506,6 +1796,11 @@
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>75 KR5Mt</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1524,6 +1819,11 @@
         <v>16.85</v>
       </c>
       <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Hb 83</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1542,6 +1842,11 @@
         <v>16.03</v>
       </c>
       <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Hb 84</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1560,6 +1865,11 @@
         <v>17.05</v>
       </c>
       <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Hb 85</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1578,6 +1888,11 @@
         <v>17.41</v>
       </c>
       <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Hb 86</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1596,6 +1911,11 @@
         <v>16.49</v>
       </c>
       <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Hb 87</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1614,6 +1934,11 @@
         <v>16.71</v>
       </c>
       <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Hb 88</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1632,6 +1957,11 @@
         <v>17.2</v>
       </c>
       <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Hb 89</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1650,6 +1980,11 @@
         <v>17.44</v>
       </c>
       <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Hb 90</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1668,6 +2003,11 @@
         <v>18.53</v>
       </c>
       <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Hb 91</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1688,6 +2028,11 @@
       <c r="F69" t="n">
         <v>13.91</v>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Hb 92</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1706,6 +2051,11 @@
         <v>19.59</v>
       </c>
       <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Hb 50</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1726,6 +2076,11 @@
       <c r="F71" t="n">
         <v>13.01</v>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Hb 40</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1746,6 +2101,11 @@
       <c r="F72" t="n">
         <v>12.56</v>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Hb 41</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1764,6 +2124,11 @@
         <v>16.41</v>
       </c>
       <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Hb 42</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1782,6 +2147,11 @@
         <v>16.91</v>
       </c>
       <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Hb 43</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1800,6 +2170,11 @@
         <v>16.47</v>
       </c>
       <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>S 8</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1818,6 +2193,11 @@
         <v>16.4</v>
       </c>
       <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>S 9</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1838,6 +2218,11 @@
       <c r="F77" t="n">
         <v>12.97</v>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>S 11</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1856,6 +2241,11 @@
         <v>16.65</v>
       </c>
       <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>S 12</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1874,6 +2264,11 @@
         <v>16.71</v>
       </c>
       <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Hb 53</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1892,6 +2287,11 @@
         <v>16.88</v>
       </c>
       <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Hb 54</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1910,6 +2310,11 @@
         <v>17.18</v>
       </c>
       <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Hb 55</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1928,6 +2333,11 @@
         <v>17.07</v>
       </c>
       <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Hb 56</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1948,6 +2358,11 @@
       <c r="F83" t="n">
         <v>14.11</v>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Hb 57</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1966,6 +2381,11 @@
         <v>17.66</v>
       </c>
       <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Hb 58</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1984,6 +2404,11 @@
         <v>17.51</v>
       </c>
       <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Hb 59</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2002,6 +2427,11 @@
         <v>17.62</v>
       </c>
       <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Hb 60</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2020,6 +2450,11 @@
         <v>17.13</v>
       </c>
       <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Hb 61</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2038,6 +2473,11 @@
         <v>17.18</v>
       </c>
       <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Hb 62</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2056,6 +2496,11 @@
         <v>15.3</v>
       </c>
       <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Hb 28</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2074,6 +2519,11 @@
         <v>16.21</v>
       </c>
       <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Hb 12</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2092,6 +2542,11 @@
         <v>16.1</v>
       </c>
       <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Hb 13</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2110,6 +2565,11 @@
         <v>16.51</v>
       </c>
       <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Hb 14</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2128,6 +2588,11 @@
         <v>16.38</v>
       </c>
       <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Hb 15</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2146,6 +2611,11 @@
         <v>17.96</v>
       </c>
       <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>S 18</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2164,6 +2634,11 @@
         <v>17.28</v>
       </c>
       <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>S 19</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2184,6 +2659,11 @@
       <c r="F96" t="n">
         <v>13.16</v>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>S 21</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2204,6 +2684,11 @@
       <c r="F97" t="n">
         <v>8.15</v>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>S 22</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2222,6 +2707,11 @@
         <v>17.6</v>
       </c>
       <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Hb 35</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2240,6 +2730,11 @@
         <v>16.71</v>
       </c>
       <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Hb 36</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2258,6 +2753,11 @@
         <v>16.38</v>
       </c>
       <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Hb 38</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2276,6 +2776,11 @@
         <v>16.54</v>
       </c>
       <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Hb 39</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2294,6 +2799,11 @@
         <v>17.41</v>
       </c>
       <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>S 1</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2312,6 +2822,11 @@
         <v>17.03</v>
       </c>
       <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>S 2</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2332,6 +2847,11 @@
       <c r="F104" t="n">
         <v>12.54</v>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>S 3</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2350,6 +2870,11 @@
       <c r="F105" t="n">
         <v>13.12</v>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>S 4</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2370,6 +2895,11 @@
       <c r="F106" t="n">
         <v>13.73</v>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>S 5</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2390,6 +2920,11 @@
       <c r="F107" t="n">
         <v>21.15</v>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Hb 30</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2408,6 +2943,11 @@
       <c r="F108" t="n">
         <v>16.22</v>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>KHb 25</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2424,6 +2964,11 @@
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>26 SR2Fi</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2442,6 +2987,11 @@
         <v>19.73</v>
       </c>
       <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Hb 73</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2462,6 +3012,11 @@
       <c r="F111" t="n">
         <v>13.76</v>
       </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Hb 74</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2478,6 +3033,11 @@
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Hb 75</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2496,6 +3056,11 @@
         <v>19.72</v>
       </c>
       <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Hb 76</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2514,6 +3079,11 @@
         <v>19.64</v>
       </c>
       <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Hb 77</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2532,6 +3102,11 @@
         <v>18.32</v>
       </c>
       <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Hb 78</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2552,6 +3127,11 @@
       <c r="F116" t="n">
         <v>12.2</v>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Hb 79</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2570,6 +3150,11 @@
         <v>17.21</v>
       </c>
       <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Hb 23</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2586,6 +3171,11 @@
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Hb 24</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2604,6 +3194,11 @@
       <c r="F119" t="n">
         <v>15.13</v>
       </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Hb 25</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2622,6 +3217,11 @@
         <v>15.58</v>
       </c>
       <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Hb 26</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2640,6 +3240,11 @@
         <v>15.25</v>
       </c>
       <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Hb 27</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2658,6 +3263,11 @@
       <c r="F122" t="n">
         <v>15.49</v>
       </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>KHb 30</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2676,6 +3286,11 @@
       <c r="F123" t="n">
         <v>14.81</v>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>KHb 31</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2692,6 +3307,11 @@
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>27 SH1Ph</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2708,6 +3328,11 @@
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>28 SH2R</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2724,6 +3349,11 @@
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>29 SH3V</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2742,6 +3372,11 @@
       <c r="F127" t="n">
         <v>14.36</v>
       </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>KS 76</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2760,6 +3395,11 @@
         <v>16.44</v>
       </c>
       <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Hb 31</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -2780,6 +3420,11 @@
       <c r="F129" t="n">
         <v>10.67</v>
       </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Hb 32</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -2798,6 +3443,11 @@
         <v>15.78</v>
       </c>
       <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Hb 33</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -2816,6 +3466,11 @@
         <v>15.27</v>
       </c>
       <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>S 13</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -2834,6 +3489,11 @@
         <v>16.01</v>
       </c>
       <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>S 14</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -2852,6 +3512,11 @@
       <c r="F133" t="n">
         <v>12.16</v>
       </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>S 15</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -2872,6 +3537,11 @@
       <c r="F134" t="n">
         <v>15.03</v>
       </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>S 16</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -2890,6 +3560,11 @@
         <v>16.32</v>
       </c>
       <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Hb 10</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -2908,6 +3583,11 @@
         <v>16.08</v>
       </c>
       <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Hb 11</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
